--- a/yolo映射表.xlsx
+++ b/yolo映射表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2024.10-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85755B15-FB23-4EDC-8ADD-92A2C470D25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B587D2B-0EEC-4B19-A711-F9B8DF48ED2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="4620" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="11325" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
   <si>
     <t>Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,6 +244,13 @@
   </si>
   <si>
     <t>COWC_Utah_AGRC</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>NWPU_VHR-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -582,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,13 +973,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -980,10 +987,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -991,10 +998,10 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1002,10 +1009,10 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,10 +1020,10 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,10 +1031,10 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,10 +1042,10 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,10 +1053,10 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,21 +1064,21 @@
         <v>34</v>
       </c>
       <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1079,10 +1086,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1090,10 +1097,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,10 +1108,10 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,10 +1130,10 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,10 +1141,10 @@
         <v>44</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,10 +1152,10 @@
         <v>44</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,32 +1163,32 @@
         <v>44</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,54 +1196,54 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>60</v>
+      <c r="C58" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,10 +1251,10 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,32 +1262,32 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,10 +1295,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,32 +1306,32 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,10 +1339,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,32 +1350,32 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1376,10 +1383,10 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1387,9 +1394,31 @@
         <v>67</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75">
         <v>4</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>63</v>
       </c>
     </row>
